--- a/TandemSpreadsheet.xlsx
+++ b/TandemSpreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ffeinc-my.sharepoint.com/personal/kyle_guggenheim_ffeinc_us/Documents/Autodesk/Tandem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_F25DC773A252ABDACC10485AA9DB56685ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F5D40EE-07FA-4B4B-9870-5E91D237AFD5}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_F25DC773A252ABDACC10485AA9DB56685ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4540125A-6758-4F10-8BD4-11AC830FDB5F}"/>
   <bookViews>
-    <workbookView xWindow="41790" yWindow="2685" windowWidth="28815" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20124" yWindow="6456" windowWidth="24336" windowHeight="15468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Space</t>
   </si>
@@ -50,41 +50,47 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Cafe A</t>
-  </si>
-  <si>
-    <t>Level 1</t>
-  </si>
-  <si>
-    <t>Cafe</t>
-  </si>
-  <si>
-    <t>Kitchen A</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>Meeting Room A</t>
-  </si>
-  <si>
     <t>Meeting Room</t>
   </si>
   <si>
-    <t>Level 2</t>
-  </si>
-  <si>
-    <t>Meeting Room B</t>
-  </si>
-  <si>
-    <t>Level 3</t>
+    <t>Level 6</t>
+  </si>
+  <si>
+    <t>TRAINING ROOM 661</t>
+  </si>
+  <si>
+    <t>PM DEPT. 1</t>
+  </si>
+  <si>
+    <t>LOBBY 600</t>
+  </si>
+  <si>
+    <t>EXECUTIVE CONFERENCE ROOM 634</t>
+  </si>
+  <si>
+    <t>PATRICK 674</t>
+  </si>
+  <si>
+    <t>PAUL P. 670</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Lobby</t>
+  </si>
+  <si>
+    <t>Open Office</t>
+  </si>
+  <si>
+    <t>Training Room</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,17 +407,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -425,21 +433,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -447,66 +455,66 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
